--- a/exam_results.xlsx
+++ b/exam_results.xlsx
@@ -30,6 +30,15 @@
   </si>
   <si>
     <t>Lual</t>
+  </si>
+  <si>
+    <t>Hellen Dwoki</t>
+  </si>
+  <si>
+    <t>Hellen Kapuki</t>
+  </si>
+  <si>
+    <t>Innocent Kapuki</t>
   </si>
 </sst>
 </file>
@@ -63,7 +72,7 @@
       <patternFill patternType="gray125"/>
     </fill>
   </fills>
-  <borders count="1">
+  <borders count="2">
     <border>
       <left style="none">
         <color rgb="FF000000"/>
@@ -80,13 +89,28 @@
       <diagonal style="none">
         <color rgb="FF000000"/>
       </diagonal>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="FF000000"/>
+      </left>
+      <right style="thin">
+        <color rgb="FF000000"/>
+      </right>
+      <top style="thin">
+        <color rgb="FF000000"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="FF000000"/>
+      </bottom>
     </border>
   </borders>
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
   </cellStyleXfs>
-  <cellXfs count="1">
+  <cellXfs count="2">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -454,13 +478,13 @@
   </sheetPr>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection pane="topLeft" activeCell="A1" sqref="A1"/>
+      <selection pane="topLeft" activeCell="I12" sqref="I12"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="8" defaultRowHeight="15"/>
   <cols>
-    <col min="1" max="1" width="22.21" customWidth="1"/>
-    <col min="2" max="2" width="13.82" customWidth="1"/>
+    <col min="1" max="1" width="17.79" customWidth="1"/>
+    <col min="2" max="2" width="15.15" customWidth="1"/>
     <col min="3" max="3" width="14.71" customWidth="1"/>
   </cols>
   <sheetData>
@@ -497,6 +521,42 @@
         <v>53.4</v>
       </c>
     </row>
+    <row r="4">
+      <c r="A4" t="s">
+        <v>5</v>
+      </c>
+      <c r="B4">
+        <v>283</v>
+      </c>
+      <c r="C4">
+        <v>56.6</v>
+      </c>
+    </row>
+    <row r="5">
+      <c r="A5" t="s">
+        <v>6</v>
+      </c>
+      <c r="B5">
+        <v>238</v>
+      </c>
+      <c r="C5">
+        <v>47.6</v>
+      </c>
+    </row>
+    <row r="6">
+      <c r="A6" t="s">
+        <v>7</v>
+      </c>
+      <c r="B6">
+        <v>296</v>
+      </c>
+      <c r="C6">
+        <v>59.2</v>
+      </c>
+    </row>
+    <row r="12">
+      <c r="I12" s="1"/>
+    </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>

--- a/exam_results.xlsx
+++ b/exam_results.xlsx
@@ -1,60 +1,24 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+<workbook xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <workbookPr/>
   <workbookProtection/>
   <bookViews>
-    <workbookView activeTab="0" autoFilterDateGrouping="1" firstSheet="0" minimized="0" showHorizontalScroll="1" showSheetTabs="1" showVerticalScroll="1" tabRatio="600" visibility="visible"/>
+    <workbookView visibility="visible" minimized="0" showHorizontalScroll="1" showVerticalScroll="1" showSheetTabs="1" tabRatio="600" firstSheet="0" activeTab="0" autoFilterDateGrouping="1"/>
   </bookViews>
   <sheets>
-    <sheet state="visible" name="Sheet" sheetId="1" r:id="rId1"/>
+    <sheet name="Sheet" sheetId="1" state="visible" r:id="rId1"/>
   </sheets>
-  <definedNames/>
+  <definedNames>
+    <definedName name="_xlnm._FilterDatabase" localSheetId="0" hidden="1">'Sheet'!$A$1:$H$16</definedName>
+  </definedNames>
   <calcPr calcId="124519" fullCalcOnLoad="1"/>
 </workbook>
 </file>
 
-<file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-  <si>
-    <t>Name</t>
-  </si>
-  <si>
-    <t>Total Marks</t>
-  </si>
-  <si>
-    <t>Average Marks</t>
-  </si>
-  <si>
-    <t>Chol Garang Dut</t>
-  </si>
-  <si>
-    <t>Lual</t>
-  </si>
-  <si>
-    <t>Hellen Dwoki</t>
-  </si>
-  <si>
-    <t>Hellen Kapuki</t>
-  </si>
-  <si>
-    <t>Innocent Kapuki</t>
-  </si>
-</sst>
-</file>
-
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" count="0" mc:Ignorable="x14ac">
-  <numFmts count="8">
-    <numFmt numFmtId="5" formatCode="&quot;$&quot;#,##0_);(&quot;$&quot;#,##0)"/>
-    <numFmt numFmtId="6" formatCode="&quot;$&quot;#,##0_);[Red](&quot;$&quot;#,##0)"/>
-    <numFmt numFmtId="7" formatCode="&quot;$&quot;#,##0.00_);(&quot;$&quot;#,##0.00)"/>
-    <numFmt numFmtId="8" formatCode="&quot;$&quot;#,##0.00_);[Red](&quot;$&quot;#,##0.00)"/>
-    <numFmt numFmtId="41" formatCode="_(* #,##0_);_(* (#,##0);_(* &quot;-&quot;_);_(@_)"/>
-    <numFmt numFmtId="42" formatCode="_(&quot;$&quot;* #,##0_);_(&quot;$&quot;* (#,##0);_(&quot;$&quot;* &quot;-&quot;_);_(@_)"/>
-    <numFmt numFmtId="43" formatCode="_(* #,##0.00_);_(* (#,##0.00);_(* &quot;-&quot;??_);_(@_)"/>
-    <numFmt numFmtId="44" formatCode="_(&quot;$&quot;* #,##0.00_);_(&quot;$&quot;* (#,##0.00);_(&quot;$&quot;* &quot;-&quot;??_);_(@_)"/>
-  </numFmts>
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+  <numFmts count="0"/>
   <fonts count="1">
     <font>
       <name val="Calibri"/>
@@ -72,45 +36,30 @@
       <patternFill patternType="gray125"/>
     </fill>
   </fills>
-  <borders count="2">
+  <borders count="1">
     <border>
-      <left style="none">
+      <left>
         <color rgb="FF000000"/>
       </left>
-      <right style="none">
+      <right>
         <color rgb="FF000000"/>
       </right>
-      <top style="none">
+      <top>
         <color rgb="FF000000"/>
       </top>
-      <bottom style="none">
+      <bottom>
         <color rgb="FF000000"/>
       </bottom>
-      <diagonal style="none">
+      <diagonal>
         <color rgb="FF000000"/>
       </diagonal>
     </border>
-    <border>
-      <left style="thin">
-        <color rgb="FF000000"/>
-      </left>
-      <right style="thin">
-        <color rgb="FF000000"/>
-      </right>
-      <top style="thin">
-        <color rgb="FF000000"/>
-      </top>
-      <bottom style="thin">
-        <color rgb="FF000000"/>
-      </bottom>
-    </border>
   </borders>
   <cellStyleXfs count="1">
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="2">
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1"/>
+  <cellXfs count="1">
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" pivotButton="0" quotePrefix="0" xfId="0"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -471,93 +420,303 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <sheetPr>
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
+  <dimension ref="A1:H16"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection pane="topLeft" activeCell="I12" sqref="I12"/>
+      <selection pane="topLeft" activeCell="A1" sqref="A1"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="8" defaultRowHeight="15"/>
   <cols>
-    <col min="1" max="1" width="17.79" customWidth="1"/>
-    <col min="2" max="2" width="15.15" customWidth="1"/>
-    <col min="3" max="3" width="14.71" customWidth="1"/>
+    <col width="17.5" customWidth="1" min="1" max="1"/>
+    <col width="10.44" customWidth="1" min="7" max="7"/>
+    <col width="12.5" customWidth="1" min="8" max="8"/>
   </cols>
   <sheetData>
     <row r="1">
-      <c r="A1" t="s">
-        <v>0</v>
-      </c>
-      <c r="B1" t="s">
-        <v>1</v>
-      </c>
-      <c r="C1" t="s">
-        <v>2</v>
-      </c>
-    </row>
-    <row r="2">
-      <c r="A2" t="s">
-        <v>3</v>
-      </c>
-      <c r="B2">
+      <c r="A1" t="inlineStr">
+        <is>
+          <t>Name</t>
+        </is>
+      </c>
+      <c r="B1" t="inlineStr">
+        <is>
+          <t>English</t>
+        </is>
+      </c>
+      <c r="C1" t="inlineStr">
+        <is>
+          <t>Mathematics</t>
+        </is>
+      </c>
+      <c r="D1" t="inlineStr">
+        <is>
+          <t>Science</t>
+        </is>
+      </c>
+      <c r="E1" t="inlineStr">
+        <is>
+          <t>C.R.E</t>
+        </is>
+      </c>
+      <c r="F1" t="inlineStr">
+        <is>
+          <t>S.S.T</t>
+        </is>
+      </c>
+      <c r="G1" t="inlineStr">
+        <is>
+          <t>Total Marks</t>
+        </is>
+      </c>
+      <c r="H1" t="inlineStr">
+        <is>
+          <t>Average Marks</t>
+        </is>
+      </c>
+    </row>
+    <row r="2"/>
+    <row r="3"/>
+    <row r="4"/>
+    <row r="5"/>
+    <row r="6"/>
+    <row r="7"/>
+    <row r="8"/>
+    <row r="9">
+      <c r="A9" t="inlineStr">
+        <is>
+          <t>Chol Garang Dut</t>
+        </is>
+      </c>
+      <c r="B9" t="n">
+        <v>80</v>
+      </c>
+      <c r="C9" t="n">
+        <v>43</v>
+      </c>
+      <c r="D9" t="n">
+        <v>32</v>
+      </c>
+      <c r="E9" t="n">
+        <v>67</v>
+      </c>
+      <c r="F9" t="n">
+        <v>44</v>
+      </c>
+      <c r="G9" t="n">
         <v>266</v>
       </c>
-      <c r="C2">
+      <c r="H9" t="n">
         <v>53.2</v>
       </c>
     </row>
-    <row r="3">
-      <c r="A3" t="s">
+    <row r="10">
+      <c r="A10" t="inlineStr">
+        <is>
+          <t>Lual</t>
+        </is>
+      </c>
+      <c r="B10" t="n">
+        <v>81</v>
+      </c>
+      <c r="C10" t="n">
+        <v>43</v>
+      </c>
+      <c r="D10" t="n">
+        <v>32</v>
+      </c>
+      <c r="E10" t="n">
+        <v>67</v>
+      </c>
+      <c r="F10" t="n">
+        <v>44</v>
+      </c>
+      <c r="G10" t="n">
+        <v>267</v>
+      </c>
+      <c r="H10" t="n">
+        <v>53.4</v>
+      </c>
+    </row>
+    <row r="11">
+      <c r="A11" t="inlineStr">
+        <is>
+          <t>Hellen Dwoki</t>
+        </is>
+      </c>
+      <c r="B11" t="n">
+        <v>56</v>
+      </c>
+      <c r="C11" t="n">
+        <v>54</v>
+      </c>
+      <c r="D11" t="n">
+        <v>43</v>
+      </c>
+      <c r="E11" t="n">
+        <v>65</v>
+      </c>
+      <c r="F11" t="n">
+        <v>65</v>
+      </c>
+      <c r="G11" t="n">
+        <v>283</v>
+      </c>
+      <c r="H11" t="n">
+        <v>56.6</v>
+      </c>
+    </row>
+    <row r="12">
+      <c r="A12" t="inlineStr">
+        <is>
+          <t>Hellen Kapuki</t>
+        </is>
+      </c>
+      <c r="B12" t="n">
+        <v>50</v>
+      </c>
+      <c r="C12" t="n">
+        <v>54</v>
+      </c>
+      <c r="D12" t="n">
         <v>4</v>
       </c>
-      <c r="B3">
-        <v>267</v>
-      </c>
-      <c r="C3">
-        <v>53.4</v>
-      </c>
-    </row>
-    <row r="4">
-      <c r="A4" t="s">
-        <v>5</v>
-      </c>
-      <c r="B4">
-        <v>283</v>
-      </c>
-      <c r="C4">
-        <v>56.6</v>
-      </c>
-    </row>
-    <row r="5">
-      <c r="A5" t="s">
-        <v>6</v>
-      </c>
-      <c r="B5">
+      <c r="E12" t="n">
+        <v>65</v>
+      </c>
+      <c r="F12" t="n">
+        <v>65</v>
+      </c>
+      <c r="G12" t="n">
         <v>238</v>
       </c>
-      <c r="C5">
+      <c r="H12" t="n">
         <v>47.6</v>
       </c>
     </row>
-    <row r="6">
-      <c r="A6" t="s">
-        <v>7</v>
-      </c>
-      <c r="B6">
+    <row r="13">
+      <c r="A13" t="inlineStr">
+        <is>
+          <t>Innocent Kapuki</t>
+        </is>
+      </c>
+      <c r="B13" t="n">
+        <v>57</v>
+      </c>
+      <c r="C13" t="n">
+        <v>54</v>
+      </c>
+      <c r="D13" t="n">
+        <v>54</v>
+      </c>
+      <c r="E13" t="n">
+        <v>66</v>
+      </c>
+      <c r="F13" t="n">
+        <v>65</v>
+      </c>
+      <c r="G13" t="n">
         <v>296</v>
       </c>
-      <c r="C6">
+      <c r="H13" t="n">
         <v>59.2</v>
       </c>
     </row>
-    <row r="12">
-      <c r="I12" s="1"/>
+    <row r="14">
+      <c r="A14" t="inlineStr">
+        <is>
+          <t>Tangun Laku Lino</t>
+        </is>
+      </c>
+      <c r="B14" t="n">
+        <v>78</v>
+      </c>
+      <c r="C14" t="n">
+        <v>87</v>
+      </c>
+      <c r="D14" t="n">
+        <v>69</v>
+      </c>
+      <c r="E14" t="n">
+        <v>98</v>
+      </c>
+      <c r="F14" t="n">
+        <v>78</v>
+      </c>
+      <c r="G14" t="n">
+        <v>410</v>
+      </c>
+      <c r="H14" t="n">
+        <v>82</v>
+      </c>
+    </row>
+    <row r="15">
+      <c r="A15" t="inlineStr">
+        <is>
+          <t>Aluel Chol Garang</t>
+        </is>
+      </c>
+      <c r="B15" t="n">
+        <v>56</v>
+      </c>
+      <c r="C15" t="n">
+        <v>54</v>
+      </c>
+      <c r="D15" t="n">
+        <v>43</v>
+      </c>
+      <c r="E15" t="n">
+        <v>45</v>
+      </c>
+      <c r="F15" t="n">
+        <v>33</v>
+      </c>
+      <c r="G15" t="n">
+        <v>231</v>
+      </c>
+      <c r="H15" t="n">
+        <v>46.2</v>
+      </c>
+    </row>
+    <row r="16">
+      <c r="A16" t="inlineStr">
+        <is>
+          <t>Deng Garang Dut</t>
+        </is>
+      </c>
+      <c r="B16" t="n">
+        <v>99</v>
+      </c>
+      <c r="C16" t="n">
+        <v>54</v>
+      </c>
+      <c r="D16" t="n">
+        <v>78</v>
+      </c>
+      <c r="E16" t="n">
+        <v>65</v>
+      </c>
+      <c r="F16" t="n">
+        <v>54</v>
+      </c>
+      <c r="G16" t="n">
+        <v>350</v>
+      </c>
+      <c r="H16" t="n">
+        <v>70</v>
+      </c>
     </row>
   </sheetData>
+  <autoFilter ref="A1:H16">
+    <sortState ref="A1:H16">
+      <sortCondition descending="1" ref="H2:H9"/>
+    </sortState>
+  </autoFilter>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>
 </file>